--- a/biology/Mycologie/Bridgeoporus_nobilissimus/Bridgeoporus_nobilissimus.xlsx
+++ b/biology/Mycologie/Bridgeoporus_nobilissimus/Bridgeoporus_nobilissimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bridgeoporus nobilissimus est une espèce de champignons basidiomycètes de la famille des Schizoporaceae. C'est un des rares taxons de champignons qui ait été évalué en danger critique par l'Union internationale pour la conservation de la nature.
 </t>
